--- a/dicionario_dados/dicionario-dados.xlsx
+++ b/dicionario_dados/dicionario-dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luan Rosso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6E2C9-494C-4BE8-8532-D0E791398839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331884D-6A72-473E-A002-484A4E16D2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="148">
   <si>
     <t>Tabela</t>
   </si>
@@ -640,12 +640,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,43 +654,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,12 +675,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -724,45 +691,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1028,2778 +1006,2882 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="65" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190:H190"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.54296875" style="37"/>
     <col min="6" max="6" width="3.90625" customWidth="1"/>
     <col min="7" max="7" width="3.6328125" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="J10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="32"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="20" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="J35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:10" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="15" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D43" s="32"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="47" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="30"/>
+      <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11" t="s">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11" t="s">
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
       <c r="J56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
     </row>
     <row r="58" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="30"/>
+      <c r="C58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="15" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="E59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="68" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
     </row>
     <row r="71" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="30"/>
+      <c r="C71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11" t="s">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11" t="s">
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="27"/>
+      <c r="C74" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="12" t="s">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="28"/>
+      <c r="C75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="12" t="s">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="12" t="s">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="28"/>
+      <c r="C76" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="24" t="s">
+      <c r="F76" s="3"/>
+      <c r="G76" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="33"/>
+      <c r="C77" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="25" t="s">
+      <c r="F77" s="3"/>
+      <c r="G77" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="12"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="12"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
       <c r="J79" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
     </row>
     <row r="81" spans="1:8" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="30"/>
+      <c r="C81" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="3" t="s">
+      <c r="B82" s="25"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
     </row>
     <row r="90" spans="1:8" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
     </row>
     <row r="93" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="10" t="s">
+      <c r="B93" s="30"/>
+      <c r="C93" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="11" t="s">
+      <c r="B94" s="26"/>
+      <c r="C94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11" t="s">
+      <c r="G94" s="6"/>
+      <c r="H94" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="11" t="s">
+      <c r="B95" s="26"/>
+      <c r="C95" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="29" t="s">
+      <c r="D95" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11" t="s">
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="14" t="s">
+      <c r="B96" s="27"/>
+      <c r="C96" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="14" t="s">
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="14" t="s">
+      <c r="B97" s="28"/>
+      <c r="C97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="36" t="s">
+      <c r="D97" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13" t="s">
+      <c r="F97" s="3"/>
+      <c r="G97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H97" s="14" t="s">
+      <c r="H97" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
       <c r="J99" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
     </row>
     <row r="101" spans="1:10" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="10" t="s">
+      <c r="B101" s="30"/>
+      <c r="C101" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="15" t="s">
+      <c r="B102" s="25"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="E102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
     </row>
     <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
     </row>
     <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="10" t="s">
+      <c r="B114" s="30"/>
+      <c r="C114" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E114" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="10" t="s">
+      <c r="F114" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="10" t="s">
+      <c r="G114" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="10" t="s">
+      <c r="H114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="11" t="s">
+      <c r="B115" s="26"/>
+      <c r="C115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="29" t="s">
+      <c r="D115" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11" t="s">
+      <c r="G115" s="6"/>
+      <c r="H115" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="11" t="s">
+      <c r="B116" s="26"/>
+      <c r="C116" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="29"/>
-      <c r="E116" s="11" t="s">
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11" t="s">
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="12" t="s">
+      <c r="B117" s="27"/>
+      <c r="C117" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D117" s="30"/>
-      <c r="E117" s="12" t="s">
+      <c r="D117" s="4"/>
+      <c r="E117" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F117" s="13"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12" t="s">
+      <c r="F117" s="3"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="12"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="12"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="10" t="s">
+      <c r="B122" s="30"/>
+      <c r="C122" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="3" t="s">
+      <c r="B123" s="25"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="17"/>
+      <c r="A130" s="9"/>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="10" t="s">
+      <c r="B136" s="30"/>
+      <c r="C136" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="33" t="s">
+      <c r="D136" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E136" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G136" s="10" t="s">
+      <c r="G136" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H136" s="10" t="s">
+      <c r="H136" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="11" t="s">
+      <c r="B137" s="26"/>
+      <c r="C137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11" t="s">
+      <c r="G137" s="6"/>
+      <c r="H137" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="11" t="s">
+      <c r="B138" s="26"/>
+      <c r="C138" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D138" s="38">
+      <c r="D138" s="20">
         <v>10.4</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11" t="s">
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="12" t="s">
+      <c r="B139" s="27"/>
+      <c r="C139" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D139" s="30"/>
-      <c r="E139" s="12" t="s">
+      <c r="D139" s="4"/>
+      <c r="E139" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12" t="s">
+      <c r="F139" s="3"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="12" t="s">
+      <c r="B140" s="28"/>
+      <c r="C140" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D140" s="39"/>
-      <c r="E140" s="12" t="s">
+      <c r="D140" s="21"/>
+      <c r="E140" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="26" t="s">
+      <c r="F140" s="3"/>
+      <c r="G140" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H140" s="12" t="s">
+      <c r="H140" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="12" t="s">
+      <c r="B141" s="28"/>
+      <c r="C141" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D141" s="34"/>
-      <c r="E141" s="12" t="s">
+      <c r="D141" s="3"/>
+      <c r="E141" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="13"/>
-      <c r="G141" s="26" t="s">
+      <c r="F141" s="3"/>
+      <c r="G141" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="12" t="s">
+      <c r="H141" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
+      <c r="A142" s="29"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
     </row>
     <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
     </row>
     <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="10" t="s">
+      <c r="B144" s="30"/>
+      <c r="C144" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E144" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="3" t="s">
+      <c r="B145" s="25"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="7"/>
-      <c r="C158" s="10" t="s">
+      <c r="B158" s="30"/>
+      <c r="C158" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D158" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F158" s="10" t="s">
+      <c r="F158" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G158" s="10" t="s">
+      <c r="G158" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H158" s="10" t="s">
+      <c r="H158" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="11" t="s">
+      <c r="B159" s="26"/>
+      <c r="C159" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D159" s="29" t="s">
+      <c r="D159" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F159" s="11" t="s">
+      <c r="F159" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11" t="s">
+      <c r="G159" s="6"/>
+      <c r="H159" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="11" t="s">
+      <c r="B160" s="26"/>
+      <c r="C160" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D160" s="29" t="s">
+      <c r="D160" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11" t="s">
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="12" t="s">
+      <c r="B161" s="27"/>
+      <c r="C161" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="12" t="s">
+      <c r="D161" s="4"/>
+      <c r="E161" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F161" s="13"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12" t="s">
+      <c r="F161" s="3"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="12" t="s">
+      <c r="B162" s="28"/>
+      <c r="C162" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D162" s="40" t="s">
+      <c r="D162" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E162" s="12" t="s">
+      <c r="E162" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F162" s="13"/>
-      <c r="G162" s="27" t="s">
+      <c r="F162" s="3"/>
+      <c r="G162" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="12" t="s">
+      <c r="H162" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="12" t="s">
+      <c r="B163" s="28"/>
+      <c r="C163" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D163" s="41" t="s">
+      <c r="D163" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="12" t="s">
+      <c r="E163" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F163" s="13"/>
-      <c r="G163" s="27" t="s">
+      <c r="F163" s="3"/>
+      <c r="G163" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H163" s="12" t="s">
+      <c r="H163" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
     </row>
     <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
     </row>
     <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="10" t="s">
+      <c r="B166" s="30"/>
+      <c r="C166" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D166" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E166" s="10" t="s">
+      <c r="E166" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="3" t="s">
+      <c r="B167" s="25"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="31"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B178" s="7"/>
-      <c r="C178" s="10" t="s">
+      <c r="B178" s="30"/>
+      <c r="C178" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D178" s="33" t="s">
+      <c r="D178" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E178" s="10" t="s">
+      <c r="E178" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F178" s="10" t="s">
+      <c r="F178" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G178" s="10" t="s">
+      <c r="G178" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H178" s="10" t="s">
+      <c r="H178" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="11" t="s">
+      <c r="B179" s="26"/>
+      <c r="C179" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D179" s="29" t="s">
+      <c r="D179" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E179" s="11" t="s">
+      <c r="E179" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F179" s="11" t="s">
+      <c r="F179" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11" t="s">
+      <c r="G179" s="6"/>
+      <c r="H179" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="29"/>
-      <c r="E180" s="11" t="s">
+      <c r="B180" s="26"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11" t="s">
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
+      <c r="A181" s="27"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="40"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="12"/>
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="41"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="12"/>
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="13"/>
+      <c r="A184" s="29"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="30"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="30"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B186" s="7"/>
-      <c r="C186" s="10" t="s">
+      <c r="B186" s="30"/>
+      <c r="C186" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="33" t="s">
+      <c r="D186" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E186" s="10" t="s">
+      <c r="E186" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F186" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="30"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="15" t="s">
+      <c r="B187" s="25"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="E187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="25"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="25"/>
+      <c r="G189" s="25"/>
+      <c r="H189" s="25"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="25"/>
+      <c r="G190" s="25"/>
+      <c r="H190" s="25"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="26"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="26"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="9"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="26"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="31"/>
+      <c r="H197" s="31"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B198" s="7"/>
-      <c r="C198" s="10" t="s">
+      <c r="B198" s="30"/>
+      <c r="C198" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="33" t="s">
+      <c r="D198" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E198" s="10" t="s">
+      <c r="E198" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F198" s="10" t="s">
+      <c r="F198" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G198" s="10" t="s">
+      <c r="G198" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H198" s="10" t="s">
+      <c r="H198" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="11" t="s">
+      <c r="B199" s="26"/>
+      <c r="C199" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D199" s="29" t="s">
+      <c r="D199" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E199" s="11" t="s">
+      <c r="E199" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11" t="s">
+      <c r="F199" s="6"/>
+      <c r="G199" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H199" s="11" t="s">
+      <c r="H199" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B200" s="9"/>
-      <c r="C200" s="11" t="s">
+      <c r="B200" s="26"/>
+      <c r="C200" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D200" s="29" t="s">
+      <c r="D200" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E200" s="11" t="s">
+      <c r="E200" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11" t="s">
+      <c r="F200" s="6"/>
+      <c r="G200" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H200" s="11" t="s">
+      <c r="H200" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="27" t="s">
+      <c r="B201" s="27"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12" t="s">
+      <c r="G201" s="4"/>
+      <c r="H201" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="40"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="13"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="12"/>
+      <c r="A202" s="28"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="41"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="13"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="12"/>
+      <c r="A203" s="28"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="34"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="13"/>
+      <c r="A204" s="29"/>
+      <c r="B204" s="29"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="7"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="30"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B206" s="7"/>
-      <c r="C206" s="10" t="s">
+      <c r="B206" s="30"/>
+      <c r="C206" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D206" s="33" t="s">
+      <c r="D206" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E206" s="10" t="s">
+      <c r="E206" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G206" s="7"/>
-      <c r="H206" s="7"/>
+      <c r="G206" s="30"/>
+      <c r="H206" s="30"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="16"/>
-      <c r="D207" s="35"/>
-      <c r="E207" s="15" t="s">
+      <c r="B207" s="25"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="E207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+      <c r="G207" s="25"/>
+      <c r="H207" s="25"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="16"/>
-      <c r="D208" s="35"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+      <c r="A208" s="25"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="16"/>
-      <c r="D209" s="35"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
+      <c r="A209" s="25"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="25"/>
+      <c r="G209" s="25"/>
+      <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="16"/>
-      <c r="D210" s="35"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+      <c r="A210" s="25"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="25"/>
+      <c r="H210" s="25"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="10" t="s">
+      <c r="A215" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="9"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="26"/>
+      <c r="G215" s="26"/>
+      <c r="H215" s="26"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="10" t="s">
+      <c r="A216" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="26"/>
+      <c r="G216" s="26"/>
+      <c r="H216" s="26"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="31"/>
+      <c r="G217" s="31"/>
+      <c r="H217" s="31"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="7"/>
-      <c r="C218" s="10" t="s">
+      <c r="B218" s="30"/>
+      <c r="C218" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="33" t="s">
+      <c r="D218" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="10" t="s">
+      <c r="E218" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="10" t="s">
+      <c r="F218" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G218" s="10" t="s">
+      <c r="G218" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H218" s="10" t="s">
+      <c r="H218" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="9" t="s">
+      <c r="A219" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B219" s="9"/>
-      <c r="C219" s="11" t="s">
+      <c r="B219" s="26"/>
+      <c r="C219" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D219" s="29" t="s">
+      <c r="D219" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E219" s="11" t="s">
+      <c r="E219" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F219" s="11"/>
-      <c r="G219" s="28" t="s">
+      <c r="F219" s="6"/>
+      <c r="G219" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H219" s="11" t="s">
+      <c r="H219" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="11" t="s">
+      <c r="B220" s="26"/>
+      <c r="C220" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="29" t="s">
+      <c r="D220" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E220" s="11" t="s">
+      <c r="E220" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F220" s="11"/>
-      <c r="G220" s="28" t="s">
+      <c r="F220" s="6"/>
+      <c r="G220" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H220" s="11" t="s">
+      <c r="H220" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B221" s="6"/>
-      <c r="C221" s="12" t="s">
+      <c r="B221" s="27"/>
+      <c r="C221" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D221" s="30" t="s">
+      <c r="D221" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E221" s="12" t="s">
+      <c r="E221" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F221" s="27"/>
-      <c r="G221" s="21" t="s">
+      <c r="F221" s="16"/>
+      <c r="G221" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H221" s="12" t="s">
+      <c r="H221" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B222" s="5"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="40"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="27" t="s">
+      <c r="B222" s="28"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G222" s="27"/>
-      <c r="H222" s="12" t="s">
+      <c r="G222" s="16"/>
+      <c r="H222" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="41"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="13"/>
-      <c r="G223" s="27"/>
-      <c r="H223" s="12"/>
+      <c r="A223" s="28"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="4"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="34"/>
-      <c r="E224" s="13"/>
-      <c r="F224" s="13"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="13"/>
+      <c r="A224" s="29"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" s="7" t="s">
+      <c r="A225" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B225" s="7"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
+      <c r="B225" s="30"/>
+      <c r="C225" s="30"/>
+      <c r="D225" s="30"/>
+      <c r="E225" s="30"/>
+      <c r="F225" s="30"/>
+      <c r="G225" s="30"/>
+      <c r="H225" s="30"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B226" s="7"/>
-      <c r="C226" s="10" t="s">
+      <c r="B226" s="30"/>
+      <c r="C226" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D226" s="33" t="s">
+      <c r="D226" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E226" s="10" t="s">
+      <c r="E226" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F226" s="7" t="s">
+      <c r="F226" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
+      <c r="G226" s="30"/>
+      <c r="H226" s="30"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B227" s="3"/>
-      <c r="C227" s="16"/>
-      <c r="D227" s="35"/>
-      <c r="E227" s="15" t="s">
+      <c r="B227" s="25"/>
+      <c r="C227" s="8"/>
+      <c r="D227" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="E227" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F227" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
+      <c r="G227" s="25"/>
+      <c r="H227" s="25"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="16"/>
-      <c r="D228" s="35"/>
-      <c r="E228" s="15"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="25"/>
+      <c r="G228" s="25"/>
+      <c r="H228" s="25"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="16"/>
-      <c r="D229" s="35"/>
-      <c r="E229" s="15"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
+      <c r="A229" s="25"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="8"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="25"/>
+      <c r="G229" s="25"/>
+      <c r="H229" s="25"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="16"/>
-      <c r="D230" s="35"/>
-      <c r="E230" s="15"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="8"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="25"/>
+      <c r="G230" s="25"/>
+      <c r="H230" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="F228:H228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="F229:H229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="F230:H230"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:H225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="F226:H226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="F227:H227"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="F209:H209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="F210:H210"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B216:H216"/>
-    <mergeCell ref="A217:H217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:H205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="F206:H206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="F207:H207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="F208:H208"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="B195:H195"/>
-    <mergeCell ref="B196:H196"/>
-    <mergeCell ref="A197:H197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:H185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="B175:H175"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="A157:H157"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="F145:H145"/>
     <mergeCell ref="A167:B167"/>
     <mergeCell ref="F167:H167"/>
     <mergeCell ref="A168:B168"/>
@@ -3824,152 +3906,69 @@
     <mergeCell ref="F146:H146"/>
     <mergeCell ref="A147:B147"/>
     <mergeCell ref="F147:H147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="A157:H157"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B175:H175"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:H185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="B196:H196"/>
+    <mergeCell ref="A197:H197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:H205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="F206:H206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="F207:H207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="F208:H208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="F209:H209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="F210:H210"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B216:H216"/>
+    <mergeCell ref="A217:H217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="F228:H228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="F229:H229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="F230:H230"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:H225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="F226:H226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="F227:H227"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3987,274 +3986,274 @@
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
